--- a/res/ConceptorNondistResults1117.xlsx
+++ b/res/ConceptorNondistResults1117.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahz\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B540764-49A3-4AD6-B8F3-BDA400080C25}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994B493-8256-44E3-8039-992BBD92FA57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8865" firstSheet="5" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8865" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="abtt" sheetId="2" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2695" uniqueCount="392">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="393">
   <si>
     <t>embedding</t>
   </si>
@@ -1221,6 +1221,9 @@
   <si>
     <t>increase of raw score if we conceptor nondist before aligning</t>
   </si>
+  <si>
+    <t>Nondist_300D_hashingBiased</t>
+  </si>
 </sst>
 </file>
 
@@ -15051,10 +15054,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2BDD16-4E6A-452A-8C49-38A3DFA4A17C}">
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -15875,8 +15878,268 @@
         <v>46.69</v>
       </c>
     </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>392</v>
+      </c>
+      <c r="B23" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23">
+        <v>60.8</v>
+      </c>
+      <c r="D23">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ref="E23:E29" si="4">D23-C23</f>
+        <v>3.5499999999999972</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ref="F23:F29" si="5">D23-MAX(G23:K23)</f>
+        <v>0.70999999999999375</v>
+      </c>
+      <c r="G23">
+        <v>59.87</v>
+      </c>
+      <c r="H23">
+        <v>62.08</v>
+      </c>
+      <c r="I23">
+        <v>62.74</v>
+      </c>
+      <c r="J23">
+        <v>63.26</v>
+      </c>
+      <c r="K23">
+        <v>63.64</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>392</v>
+      </c>
+      <c r="B24" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24">
+        <v>29.34</v>
+      </c>
+      <c r="D24">
+        <v>5.91</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="4"/>
+        <v>-23.43</v>
+      </c>
+      <c r="F24">
+        <f t="shared" si="5"/>
+        <v>-25.83</v>
+      </c>
+      <c r="G24">
+        <v>31.74</v>
+      </c>
+      <c r="H24">
+        <v>30.82</v>
+      </c>
+      <c r="I24">
+        <v>29.27</v>
+      </c>
+      <c r="J24">
+        <v>28.09</v>
+      </c>
+      <c r="K24">
+        <v>28.83</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>392</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25">
+        <v>28.87</v>
+      </c>
+      <c r="D25">
+        <v>23.91</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="4"/>
+        <v>-4.9600000000000009</v>
+      </c>
+      <c r="F25">
+        <f t="shared" si="5"/>
+        <v>-6.23</v>
+      </c>
+      <c r="G25">
+        <v>30.14</v>
+      </c>
+      <c r="H25">
+        <v>27.77</v>
+      </c>
+      <c r="I25">
+        <v>25.71</v>
+      </c>
+      <c r="J25">
+        <v>24.69</v>
+      </c>
+      <c r="K25">
+        <v>24.84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>392</v>
+      </c>
+      <c r="B26" t="s">
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>24.5</v>
+      </c>
+      <c r="D26">
+        <v>9.58</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="4"/>
+        <v>-14.92</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="5"/>
+        <v>-16.149999999999999</v>
+      </c>
+      <c r="G26">
+        <v>24.66</v>
+      </c>
+      <c r="H26">
+        <v>25.73</v>
+      </c>
+      <c r="I26">
+        <v>25.22</v>
+      </c>
+      <c r="J26">
+        <v>24.94</v>
+      </c>
+      <c r="K26">
+        <v>24.59</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>392</v>
+      </c>
+      <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27">
+        <v>16.86</v>
+      </c>
+      <c r="D27">
+        <v>27.38</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="4"/>
+        <v>10.52</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="5"/>
+        <v>9.93</v>
+      </c>
+      <c r="G27">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H27">
+        <v>15.33</v>
+      </c>
+      <c r="I27">
+        <v>17.45</v>
+      </c>
+      <c r="J27">
+        <v>16.809999999999999</v>
+      </c>
+      <c r="K27">
+        <v>15.36</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>392</v>
+      </c>
+      <c r="B28" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28">
+        <v>43.6</v>
+      </c>
+      <c r="D28">
+        <v>25.35</v>
+      </c>
+      <c r="E28">
+        <f t="shared" si="4"/>
+        <v>-18.25</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="5"/>
+        <v>-19.409999999999997</v>
+      </c>
+      <c r="G28">
+        <v>43.68</v>
+      </c>
+      <c r="H28">
+        <v>44.26</v>
+      </c>
+      <c r="I28">
+        <v>44.76</v>
+      </c>
+      <c r="J28">
+        <v>44.41</v>
+      </c>
+      <c r="K28">
+        <v>44.39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>392</v>
+      </c>
+      <c r="B29" t="s">
+        <v>40</v>
+      </c>
+      <c r="C29">
+        <v>38.79</v>
+      </c>
+      <c r="D29">
+        <v>22.66</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>-16.13</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="5"/>
+        <v>-16.88</v>
+      </c>
+      <c r="G29">
+        <v>38.1</v>
+      </c>
+      <c r="H29">
+        <v>38.950000000000003</v>
+      </c>
+      <c r="I29">
+        <v>39.11</v>
+      </c>
+      <c r="J29">
+        <v>38.69</v>
+      </c>
+      <c r="K29">
+        <v>39.54</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -32389,7 +32652,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E5998-649F-4DFC-B08B-8BFBAA44F481}">
   <dimension ref="A1:H190"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H2" sqref="H2"/>
     </sheetView>
   </sheetViews>

--- a/res/ConceptorNondistResults1117.xlsx
+++ b/res/ConceptorNondistResults1117.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\noahz\OneDrive\桌面\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7994B493-8256-44E3-8039-992BBD92FA57}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3214EDD-6334-4154-8F99-84EF49C66C44}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8865" firstSheet="6" activeTab="13" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2804" uniqueCount="400">
   <si>
     <t>embedding</t>
   </si>
@@ -1224,6 +1224,27 @@
   <si>
     <t>Nondist_300D_hashingBiased</t>
   </si>
+  <si>
+    <t>no conceptor at all</t>
+  </si>
+  <si>
+    <t>conceptor nondist before</t>
+  </si>
+  <si>
+    <t>conceptor nondist before and aligned after</t>
+  </si>
+  <si>
+    <t>conceptor aligned</t>
+  </si>
+  <si>
+    <t>Hashing</t>
+  </si>
+  <si>
+    <t>HashingBiased</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
 </sst>
 </file>
 
@@ -1730,7 +1751,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="16" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1745,6 +1766,9 @@
     <xf numFmtId="0" fontId="16" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="42">
@@ -15054,16 +15078,17 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B2BDD16-4E6A-452A-8C49-38A3DFA4A17C}">
-  <dimension ref="A1:K29"/>
+  <dimension ref="A1:K60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="32" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" customWidth="1"/>
     <col min="2" max="2" width="20.28515625" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
@@ -15115,7 +15140,7 @@
         <v>73.3</v>
       </c>
       <c r="E2">
-        <f t="shared" ref="E2:E15" si="0">D2-C2</f>
+        <f t="shared" ref="E2:E29" si="0">D2-C2</f>
         <v>2.4200000000000017</v>
       </c>
       <c r="F2">
@@ -15627,17 +15652,17 @@
         <v>34</v>
       </c>
       <c r="C16">
+        <v>67.61</v>
+      </c>
+      <c r="D16">
         <v>67.430000000000007</v>
       </c>
-      <c r="D16">
-        <v>67.61</v>
-      </c>
       <c r="E16">
-        <f t="shared" ref="E16:E22" si="2">D16-C16</f>
-        <v>0.17999999999999261</v>
+        <f t="shared" si="0"/>
+        <v>-0.17999999999999261</v>
       </c>
       <c r="F16">
-        <f t="shared" ref="F16:F22" si="3">D16-MAX(G16:K16)</f>
+        <f>C16-MAX(G16:K16)</f>
         <v>-1.269999999999996</v>
       </c>
       <c r="G16">
@@ -15664,17 +15689,17 @@
         <v>35</v>
       </c>
       <c r="C17">
+        <v>32.76</v>
+      </c>
+      <c r="D17">
         <v>32.93</v>
       </c>
-      <c r="D17">
-        <v>32.76</v>
-      </c>
       <c r="E17">
-        <f t="shared" si="2"/>
-        <v>-0.17000000000000171</v>
+        <f t="shared" si="0"/>
+        <v>0.17000000000000171</v>
       </c>
       <c r="F17">
-        <f t="shared" si="3"/>
+        <f>C17-MAX(G17:K17)</f>
         <v>-0.3300000000000054</v>
       </c>
       <c r="G17">
@@ -15701,17 +15726,17 @@
         <v>36</v>
       </c>
       <c r="C18">
+        <v>32.93</v>
+      </c>
+      <c r="D18">
         <v>33.659999999999997</v>
       </c>
-      <c r="D18">
-        <v>32.93</v>
-      </c>
       <c r="E18">
-        <f t="shared" si="2"/>
-        <v>-0.72999999999999687</v>
+        <f t="shared" si="0"/>
+        <v>0.72999999999999687</v>
       </c>
       <c r="F18">
-        <f t="shared" si="3"/>
+        <f>C18-MAX(G18:K18)</f>
         <v>1.6799999999999997</v>
       </c>
       <c r="G18">
@@ -15738,17 +15763,17 @@
         <v>37</v>
       </c>
       <c r="C19">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="D19">
         <v>32.590000000000003</v>
       </c>
-      <c r="D19">
-        <v>32.159999999999997</v>
-      </c>
       <c r="E19">
-        <f t="shared" si="2"/>
-        <v>-0.43000000000000682</v>
+        <f t="shared" si="0"/>
+        <v>0.43000000000000682</v>
       </c>
       <c r="F19">
-        <f t="shared" si="3"/>
+        <f>C19-MAX(G19:K19)</f>
         <v>-1.1300000000000026</v>
       </c>
       <c r="G19">
@@ -15775,17 +15800,17 @@
         <v>38</v>
       </c>
       <c r="C20">
+        <v>18.89</v>
+      </c>
+      <c r="D20">
         <v>18.920000000000002</v>
       </c>
-      <c r="D20">
-        <v>18.89</v>
-      </c>
       <c r="E20">
-        <f t="shared" si="2"/>
-        <v>-3.0000000000001137E-2</v>
+        <f t="shared" si="0"/>
+        <v>3.0000000000001137E-2</v>
       </c>
       <c r="F20">
-        <f t="shared" si="3"/>
+        <f>C20-MAX(G20:K20)</f>
         <v>-2.4899999999999984</v>
       </c>
       <c r="G20">
@@ -15812,17 +15837,17 @@
         <v>39</v>
       </c>
       <c r="C21">
+        <v>49.62</v>
+      </c>
+      <c r="D21">
         <v>50.8</v>
       </c>
-      <c r="D21">
-        <v>49.62</v>
-      </c>
       <c r="E21">
-        <f t="shared" si="2"/>
-        <v>-1.1799999999999997</v>
+        <f t="shared" si="0"/>
+        <v>1.1799999999999997</v>
       </c>
       <c r="F21">
-        <f t="shared" si="3"/>
+        <f>C21-MAX(G21:K21)</f>
         <v>-1.980000000000004</v>
       </c>
       <c r="G21">
@@ -15849,17 +15874,17 @@
         <v>40</v>
       </c>
       <c r="C22">
+        <v>47</v>
+      </c>
+      <c r="D22">
         <v>47.29</v>
       </c>
-      <c r="D22">
-        <v>47</v>
-      </c>
       <c r="E22">
-        <f t="shared" si="2"/>
-        <v>-0.28999999999999915</v>
+        <f t="shared" si="0"/>
+        <v>0.28999999999999915</v>
       </c>
       <c r="F22">
-        <f t="shared" si="3"/>
+        <f>C22-MAX(G22:K22)</f>
         <v>-1.0700000000000003</v>
       </c>
       <c r="G22">
@@ -15886,17 +15911,17 @@
         <v>34</v>
       </c>
       <c r="C23">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="D23">
         <v>60.8</v>
       </c>
-      <c r="D23">
-        <v>64.349999999999994</v>
-      </c>
       <c r="E23">
-        <f t="shared" ref="E23:E29" si="4">D23-C23</f>
-        <v>3.5499999999999972</v>
+        <f t="shared" si="0"/>
+        <v>-3.5499999999999972</v>
       </c>
       <c r="F23">
-        <f t="shared" ref="F23:F29" si="5">D23-MAX(G23:K23)</f>
+        <f>C23-MAX(G23:K23)</f>
         <v>0.70999999999999375</v>
       </c>
       <c r="G23">
@@ -15923,17 +15948,17 @@
         <v>35</v>
       </c>
       <c r="C24">
+        <v>5.91</v>
+      </c>
+      <c r="D24">
         <v>29.34</v>
       </c>
-      <c r="D24">
-        <v>5.91</v>
-      </c>
       <c r="E24">
-        <f t="shared" si="4"/>
-        <v>-23.43</v>
+        <f t="shared" si="0"/>
+        <v>23.43</v>
       </c>
       <c r="F24">
-        <f t="shared" si="5"/>
+        <f>C24-MAX(G24:K24)</f>
         <v>-25.83</v>
       </c>
       <c r="G24">
@@ -15960,17 +15985,17 @@
         <v>36</v>
       </c>
       <c r="C25">
+        <v>23.91</v>
+      </c>
+      <c r="D25">
         <v>28.87</v>
       </c>
-      <c r="D25">
-        <v>23.91</v>
-      </c>
       <c r="E25">
-        <f t="shared" si="4"/>
-        <v>-4.9600000000000009</v>
+        <f t="shared" si="0"/>
+        <v>4.9600000000000009</v>
       </c>
       <c r="F25">
-        <f t="shared" si="5"/>
+        <f>C25-MAX(G25:K25)</f>
         <v>-6.23</v>
       </c>
       <c r="G25">
@@ -15997,17 +16022,17 @@
         <v>37</v>
       </c>
       <c r="C26">
+        <v>9.58</v>
+      </c>
+      <c r="D26">
         <v>24.5</v>
       </c>
-      <c r="D26">
-        <v>9.58</v>
-      </c>
       <c r="E26">
-        <f t="shared" si="4"/>
-        <v>-14.92</v>
+        <f t="shared" si="0"/>
+        <v>14.92</v>
       </c>
       <c r="F26">
-        <f t="shared" si="5"/>
+        <f>C26-MAX(G26:K26)</f>
         <v>-16.149999999999999</v>
       </c>
       <c r="G26">
@@ -16034,17 +16059,17 @@
         <v>38</v>
       </c>
       <c r="C27">
+        <v>27.38</v>
+      </c>
+      <c r="D27">
         <v>16.86</v>
       </c>
-      <c r="D27">
-        <v>27.38</v>
-      </c>
       <c r="E27">
-        <f t="shared" si="4"/>
-        <v>10.52</v>
+        <f t="shared" si="0"/>
+        <v>-10.52</v>
       </c>
       <c r="F27">
-        <f t="shared" si="5"/>
+        <f>C27-MAX(G27:K27)</f>
         <v>9.93</v>
       </c>
       <c r="G27">
@@ -16071,17 +16096,17 @@
         <v>39</v>
       </c>
       <c r="C28">
+        <v>25.35</v>
+      </c>
+      <c r="D28">
         <v>43.6</v>
       </c>
-      <c r="D28">
-        <v>25.35</v>
-      </c>
       <c r="E28">
-        <f t="shared" si="4"/>
-        <v>-18.25</v>
+        <f t="shared" si="0"/>
+        <v>18.25</v>
       </c>
       <c r="F28">
-        <f t="shared" si="5"/>
+        <f>C28-MAX(G28:K28)</f>
         <v>-19.409999999999997</v>
       </c>
       <c r="G28">
@@ -16108,17 +16133,17 @@
         <v>40</v>
       </c>
       <c r="C29">
+        <v>22.66</v>
+      </c>
+      <c r="D29">
         <v>38.79</v>
       </c>
-      <c r="D29">
-        <v>22.66</v>
-      </c>
       <c r="E29">
-        <f t="shared" si="4"/>
-        <v>-16.13</v>
+        <f t="shared" si="0"/>
+        <v>16.13</v>
       </c>
       <c r="F29">
-        <f t="shared" si="5"/>
+        <f>C29-MAX(G29:K29)</f>
         <v>-16.88</v>
       </c>
       <c r="G29">
@@ -16135,6 +16160,401 @@
       </c>
       <c r="K29">
         <v>39.54</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>399</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" t="s">
+        <v>3</v>
+      </c>
+      <c r="E39" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>95</v>
+      </c>
+      <c r="B40" t="s">
+        <v>34</v>
+      </c>
+      <c r="C40">
+        <v>69.11</v>
+      </c>
+      <c r="D40">
+        <v>70.92</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ref="E40:E60" si="2">D40-C40</f>
+        <v>1.8100000000000023</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>95</v>
+      </c>
+      <c r="B41" t="s">
+        <v>35</v>
+      </c>
+      <c r="C41">
+        <v>43.82</v>
+      </c>
+      <c r="D41">
+        <v>46.61</v>
+      </c>
+      <c r="E41">
+        <f t="shared" si="2"/>
+        <v>2.7899999999999991</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>95</v>
+      </c>
+      <c r="B42" t="s">
+        <v>36</v>
+      </c>
+      <c r="C42">
+        <v>30.67</v>
+      </c>
+      <c r="D42">
+        <v>30.5</v>
+      </c>
+      <c r="E42">
+        <f t="shared" si="2"/>
+        <v>-0.17000000000000171</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>95</v>
+      </c>
+      <c r="B43" t="s">
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>39.090000000000003</v>
+      </c>
+      <c r="D43">
+        <v>46.55</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="2"/>
+        <v>7.4599999999999937</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>95</v>
+      </c>
+      <c r="B44" t="s">
+        <v>38</v>
+      </c>
+      <c r="C44">
+        <v>30.12</v>
+      </c>
+      <c r="D44">
+        <v>31.89</v>
+      </c>
+      <c r="E44">
+        <f t="shared" si="2"/>
+        <v>1.7699999999999996</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+      <c r="C45">
+        <v>51.65</v>
+      </c>
+      <c r="D45">
+        <v>58.54</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="2"/>
+        <v>6.8900000000000006</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+      <c r="C46">
+        <v>56.28</v>
+      </c>
+      <c r="D46">
+        <v>60.19</v>
+      </c>
+      <c r="E46">
+        <f t="shared" si="2"/>
+        <v>3.9099999999999966</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>397</v>
+      </c>
+      <c r="B47" t="s">
+        <v>34</v>
+      </c>
+      <c r="C47">
+        <v>67.61</v>
+      </c>
+      <c r="D47">
+        <v>67.430000000000007</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="2"/>
+        <v>-0.17999999999999261</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>397</v>
+      </c>
+      <c r="B48" t="s">
+        <v>35</v>
+      </c>
+      <c r="C48">
+        <v>32.76</v>
+      </c>
+      <c r="D48">
+        <v>32.93</v>
+      </c>
+      <c r="E48">
+        <f t="shared" si="2"/>
+        <v>0.17000000000000171</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>397</v>
+      </c>
+      <c r="B49" t="s">
+        <v>36</v>
+      </c>
+      <c r="C49">
+        <v>32.93</v>
+      </c>
+      <c r="D49">
+        <v>33.659999999999997</v>
+      </c>
+      <c r="E49">
+        <f t="shared" si="2"/>
+        <v>0.72999999999999687</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>397</v>
+      </c>
+      <c r="B50" t="s">
+        <v>37</v>
+      </c>
+      <c r="C50">
+        <v>32.159999999999997</v>
+      </c>
+      <c r="D50">
+        <v>32.590000000000003</v>
+      </c>
+      <c r="E50">
+        <f t="shared" si="2"/>
+        <v>0.43000000000000682</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>397</v>
+      </c>
+      <c r="B51" t="s">
+        <v>38</v>
+      </c>
+      <c r="C51">
+        <v>18.89</v>
+      </c>
+      <c r="D51">
+        <v>18.920000000000002</v>
+      </c>
+      <c r="E51">
+        <f t="shared" si="2"/>
+        <v>3.0000000000001137E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>397</v>
+      </c>
+      <c r="B52" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52">
+        <v>49.62</v>
+      </c>
+      <c r="D52">
+        <v>50.8</v>
+      </c>
+      <c r="E52">
+        <f t="shared" si="2"/>
+        <v>1.1799999999999997</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>397</v>
+      </c>
+      <c r="B53" t="s">
+        <v>40</v>
+      </c>
+      <c r="C53">
+        <v>47</v>
+      </c>
+      <c r="D53">
+        <v>47.29</v>
+      </c>
+      <c r="E53">
+        <f t="shared" si="2"/>
+        <v>0.28999999999999915</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>398</v>
+      </c>
+      <c r="B54" t="s">
+        <v>34</v>
+      </c>
+      <c r="C54">
+        <v>64.349999999999994</v>
+      </c>
+      <c r="D54">
+        <v>60.8</v>
+      </c>
+      <c r="E54">
+        <f t="shared" si="2"/>
+        <v>-3.5499999999999972</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>398</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>5.91</v>
+      </c>
+      <c r="D55">
+        <v>29.34</v>
+      </c>
+      <c r="E55">
+        <f t="shared" si="2"/>
+        <v>23.43</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>398</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>23.91</v>
+      </c>
+      <c r="D56">
+        <v>28.87</v>
+      </c>
+      <c r="E56">
+        <f t="shared" si="2"/>
+        <v>4.9600000000000009</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>398</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>9.58</v>
+      </c>
+      <c r="D57">
+        <v>24.5</v>
+      </c>
+      <c r="E57">
+        <f t="shared" si="2"/>
+        <v>14.92</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>398</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>27.38</v>
+      </c>
+      <c r="D58">
+        <v>16.86</v>
+      </c>
+      <c r="E58">
+        <f t="shared" si="2"/>
+        <v>-10.52</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>398</v>
+      </c>
+      <c r="B59" t="s">
+        <v>39</v>
+      </c>
+      <c r="C59">
+        <v>25.35</v>
+      </c>
+      <c r="D59">
+        <v>43.6</v>
+      </c>
+      <c r="E59">
+        <f t="shared" si="2"/>
+        <v>18.25</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>398</v>
+      </c>
+      <c r="B60" t="s">
+        <v>40</v>
+      </c>
+      <c r="C60">
+        <v>22.66</v>
+      </c>
+      <c r="D60">
+        <v>38.79</v>
+      </c>
+      <c r="E60">
+        <f t="shared" si="2"/>
+        <v>16.13</v>
       </c>
     </row>
   </sheetData>
@@ -32650,10 +33070,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A46E5998-649F-4DFC-B08B-8BFBAA44F481}">
-  <dimension ref="A1:H190"/>
+  <dimension ref="A1:R190"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="M3" sqref="M3:R24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32661,9 +33081,15 @@
     <col min="1" max="1" width="18.85546875" customWidth="1"/>
     <col min="2" max="2" width="30.140625" customWidth="1"/>
     <col min="3" max="3" width="17.5703125" customWidth="1"/>
+    <col min="13" max="13" width="15.85546875" customWidth="1"/>
+    <col min="14" max="14" width="19.28515625" customWidth="1"/>
+    <col min="15" max="15" width="11.5703125" customWidth="1"/>
+    <col min="16" max="16" width="12" customWidth="1"/>
+    <col min="17" max="17" width="18" customWidth="1"/>
+    <col min="18" max="18" width="14.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>379</v>
       </c>
@@ -32689,7 +33115,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>49</v>
       </c>
@@ -32716,7 +33142,7 @@
         <v>24.589999999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:18" ht="90" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>49</v>
       </c>
@@ -32742,8 +33168,26 @@
         <f t="shared" ref="H3:H66" si="0">G3-E3</f>
         <v>24.9</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M3" s="9" t="s">
+        <v>379</v>
+      </c>
+      <c r="N3" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="O3" s="9" t="s">
+        <v>396</v>
+      </c>
+      <c r="P3" s="9" t="s">
+        <v>393</v>
+      </c>
+      <c r="Q3" s="9" t="s">
+        <v>395</v>
+      </c>
+      <c r="R3" s="9" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>49</v>
       </c>
@@ -32769,8 +33213,26 @@
         <f t="shared" si="0"/>
         <v>21.140000000000004</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>49</v>
+      </c>
+      <c r="N4" t="s">
+        <v>37</v>
+      </c>
+      <c r="O4">
+        <v>55.06</v>
+      </c>
+      <c r="P4">
+        <v>37.630000000000003</v>
+      </c>
+      <c r="Q4">
+        <v>63.8</v>
+      </c>
+      <c r="R4">
+        <v>62.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>49</v>
       </c>
@@ -32796,8 +33258,26 @@
         <f t="shared" si="0"/>
         <v>23.36</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>49</v>
+      </c>
+      <c r="N5" t="s">
+        <v>38</v>
+      </c>
+      <c r="O5">
+        <v>53.85</v>
+      </c>
+      <c r="P5">
+        <v>34.54</v>
+      </c>
+      <c r="Q5">
+        <v>60.51</v>
+      </c>
+      <c r="R5">
+        <v>59.44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>49</v>
       </c>
@@ -32823,8 +33303,26 @@
         <f t="shared" si="0"/>
         <v>28.010000000000005</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>49</v>
+      </c>
+      <c r="N6" t="s">
+        <v>39</v>
+      </c>
+      <c r="O6">
+        <v>44.44</v>
+      </c>
+      <c r="P6">
+        <v>26.06</v>
+      </c>
+      <c r="Q6">
+        <v>48.01</v>
+      </c>
+      <c r="R6">
+        <v>47.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>49</v>
       </c>
@@ -32850,8 +33348,26 @@
         <f t="shared" si="0"/>
         <v>11.510000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>49</v>
+      </c>
+      <c r="N7" t="s">
+        <v>35</v>
+      </c>
+      <c r="O7">
+        <v>43.88</v>
+      </c>
+      <c r="P7">
+        <v>25.9</v>
+      </c>
+      <c r="Q7">
+        <v>50.97</v>
+      </c>
+      <c r="R7">
+        <v>49.26</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>49</v>
       </c>
@@ -32877,8 +33393,26 @@
         <f t="shared" si="0"/>
         <v>17.919999999999998</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>49</v>
+      </c>
+      <c r="N8" t="s">
+        <v>34</v>
+      </c>
+      <c r="O8">
+        <v>67.94</v>
+      </c>
+      <c r="P8">
+        <v>41.14</v>
+      </c>
+      <c r="Q8">
+        <v>70.44</v>
+      </c>
+      <c r="R8">
+        <v>69.150000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>50</v>
       </c>
@@ -32904,8 +33438,26 @@
         <f t="shared" si="0"/>
         <v>20.659999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>49</v>
+      </c>
+      <c r="N9" t="s">
+        <v>40</v>
+      </c>
+      <c r="O9">
+        <v>29.17</v>
+      </c>
+      <c r="P9">
+        <v>20.18</v>
+      </c>
+      <c r="Q9">
+        <v>32.72</v>
+      </c>
+      <c r="R9">
+        <v>31.69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>50</v>
       </c>
@@ -32931,8 +33483,26 @@
         <f t="shared" si="0"/>
         <v>10.89</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>49</v>
+      </c>
+      <c r="N10" t="s">
+        <v>36</v>
+      </c>
+      <c r="O10">
+        <v>40.4</v>
+      </c>
+      <c r="P10">
+        <v>27.69</v>
+      </c>
+      <c r="Q10">
+        <v>46.93</v>
+      </c>
+      <c r="R10">
+        <v>45.61</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>50</v>
       </c>
@@ -32958,8 +33528,26 @@
         <f t="shared" si="0"/>
         <v>10.379999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>50</v>
+      </c>
+      <c r="N11" t="s">
+        <v>36</v>
+      </c>
+      <c r="O11">
+        <v>46.99</v>
+      </c>
+      <c r="P11">
+        <v>27.57</v>
+      </c>
+      <c r="Q11">
+        <v>49.1</v>
+      </c>
+      <c r="R11">
+        <v>48.23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>50</v>
       </c>
@@ -32985,8 +33573,26 @@
         <f t="shared" si="0"/>
         <v>15.700000000000003</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N12" t="s">
+        <v>34</v>
+      </c>
+      <c r="O12">
+        <v>63.38</v>
+      </c>
+      <c r="P12">
+        <v>51.1</v>
+      </c>
+      <c r="Q12">
+        <v>62.36</v>
+      </c>
+      <c r="R12">
+        <v>61.99</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -33012,8 +33618,26 @@
         <f t="shared" si="0"/>
         <v>29.39</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>50</v>
+      </c>
+      <c r="N13" t="s">
+        <v>40</v>
+      </c>
+      <c r="O13">
+        <v>23.93</v>
+      </c>
+      <c r="P13">
+        <v>13.98</v>
+      </c>
+      <c r="Q13">
+        <v>24.88</v>
+      </c>
+      <c r="R13">
+        <v>24.36</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>50</v>
       </c>
@@ -33039,8 +33663,26 @@
         <f t="shared" si="0"/>
         <v>31.790000000000006</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>50</v>
+      </c>
+      <c r="N14" t="s">
+        <v>38</v>
+      </c>
+      <c r="O14">
+        <v>60.5</v>
+      </c>
+      <c r="P14">
+        <v>46</v>
+      </c>
+      <c r="Q14">
+        <v>62.65</v>
+      </c>
+      <c r="R14">
+        <v>61.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>50</v>
       </c>
@@ -33066,8 +33708,26 @@
         <f t="shared" si="0"/>
         <v>16.470000000000002</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15">
+        <v>64.739999999999995</v>
+      </c>
+      <c r="P15">
+        <v>36.97</v>
+      </c>
+      <c r="Q15">
+        <v>67.83</v>
+      </c>
+      <c r="R15">
+        <v>66.36</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>51</v>
       </c>
@@ -33093,8 +33753,26 @@
         <f t="shared" si="0"/>
         <v>21.240000000000002</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>50</v>
+      </c>
+      <c r="N16" t="s">
+        <v>37</v>
+      </c>
+      <c r="O16">
+        <v>72.8</v>
+      </c>
+      <c r="P16">
+        <v>42.36</v>
+      </c>
+      <c r="Q16">
+        <v>75.010000000000005</v>
+      </c>
+      <c r="R16">
+        <v>74.150000000000006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>51</v>
       </c>
@@ -33120,8 +33798,26 @@
         <f t="shared" si="0"/>
         <v>27.38000000000001</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>50</v>
+      </c>
+      <c r="N17" t="s">
+        <v>39</v>
+      </c>
+      <c r="O17">
+        <v>36.340000000000003</v>
+      </c>
+      <c r="P17">
+        <v>19.489999999999998</v>
+      </c>
+      <c r="Q17">
+        <v>36.729999999999997</v>
+      </c>
+      <c r="R17">
+        <v>35.96</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>51</v>
       </c>
@@ -33147,8 +33843,26 @@
         <f t="shared" si="0"/>
         <v>12.57</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>51</v>
+      </c>
+      <c r="N18" t="s">
+        <v>36</v>
+      </c>
+      <c r="O18">
+        <v>42.78</v>
+      </c>
+      <c r="P18">
+        <v>23.9</v>
+      </c>
+      <c r="Q18">
+        <v>45.84</v>
+      </c>
+      <c r="R18">
+        <v>45.14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>51</v>
       </c>
@@ -33174,8 +33888,26 @@
         <f t="shared" si="0"/>
         <v>24.7</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" t="s">
+        <v>34</v>
+      </c>
+      <c r="O19">
+        <v>65.569999999999993</v>
+      </c>
+      <c r="P19">
+        <v>42.8</v>
+      </c>
+      <c r="Q19">
+        <v>71.41</v>
+      </c>
+      <c r="R19">
+        <v>70.180000000000007</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -33201,8 +33933,26 @@
         <f t="shared" si="0"/>
         <v>14.520000000000003</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>51</v>
+      </c>
+      <c r="N20" t="s">
+        <v>40</v>
+      </c>
+      <c r="O20">
+        <v>27.54</v>
+      </c>
+      <c r="P20">
+        <v>16.190000000000001</v>
+      </c>
+      <c r="Q20">
+        <v>29.39</v>
+      </c>
+      <c r="R20">
+        <v>28.76</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>51</v>
       </c>
@@ -33228,8 +33978,26 @@
         <f t="shared" si="0"/>
         <v>22.810000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>51</v>
+      </c>
+      <c r="N21" t="s">
+        <v>35</v>
+      </c>
+      <c r="O21">
+        <v>52.32</v>
+      </c>
+      <c r="P21">
+        <v>30.38</v>
+      </c>
+      <c r="Q21">
+        <v>56.37</v>
+      </c>
+      <c r="R21">
+        <v>55.08</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>51</v>
       </c>
@@ -33255,8 +34023,26 @@
         <f t="shared" si="0"/>
         <v>12.170000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>51</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22">
+        <v>54.45</v>
+      </c>
+      <c r="P22">
+        <v>41.5</v>
+      </c>
+      <c r="Q22">
+        <v>56.75</v>
+      </c>
+      <c r="R22">
+        <v>56.02</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>49</v>
       </c>
@@ -33282,8 +34068,26 @@
         <f t="shared" si="0"/>
         <v>11.57</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>51</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23">
+        <v>63.21</v>
+      </c>
+      <c r="P23">
+        <v>42.56</v>
+      </c>
+      <c r="Q23">
+        <v>66.150000000000006</v>
+      </c>
+      <c r="R23">
+        <v>65.37</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>49</v>
       </c>
@@ -33309,8 +34113,26 @@
         <f t="shared" si="0"/>
         <v>28.03</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>51</v>
+      </c>
+      <c r="N24" t="s">
+        <v>39</v>
+      </c>
+      <c r="O24">
+        <v>35.99</v>
+      </c>
+      <c r="P24">
+        <v>25.07</v>
+      </c>
+      <c r="Q24">
+        <v>38.1</v>
+      </c>
+      <c r="R24">
+        <v>37.24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>49</v>
       </c>
@@ -33337,7 +34159,7 @@
         <v>17.999999999999996</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>49</v>
       </c>
@@ -33364,7 +34186,7 @@
         <v>21.41</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>49</v>
       </c>
@@ -33391,7 +34213,7 @@
         <v>24.58</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>49</v>
       </c>
@@ -33418,7 +34240,7 @@
         <v>23.250000000000004</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>49</v>
       </c>
@@ -33445,7 +34267,7 @@
         <v>24.71</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>50</v>
       </c>
@@ -33472,7 +34294,7 @@
         <v>29.35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>50</v>
       </c>
@@ -33499,7 +34321,7 @@
         <v>16.500000000000004</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>50</v>
       </c>
